--- a/life_restart/data/specialthanks-afd.xlsx
+++ b/life_restart/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FA711-C462-43C5-8083-8FE8E667B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF7B80-CA15-4BE4-92B0-2F5AFBC1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
   <si>
     <t>group</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>shiki</t>
-  </si>
-  <si>
-    <t>小羊</t>
   </si>
   <si>
     <t>狂啸</t>
@@ -1484,6 +1481,943 @@
   </si>
   <si>
     <t>早啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢肥哥救我狗命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可以的话希望人生重开后还能遇到你们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清影昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散修少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ainavol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不识周树人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坠星灬追月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juvucuc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深秋的七宗罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋漓雨声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废柴呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天林灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱白安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺其自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkanin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳演员路人甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸星霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈0421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小糊涂仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬子，不论重生多长次，我都等你回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离淘气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If what you need didn't exist. just create it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鸿鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为策划的脑洞和程序的脑细胞+发际线，干杯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划让我写一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧二花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾熙豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮酒醉月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉墨明华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人未尽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡纸129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMFAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨露微凉暮流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若酷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑绝轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然🥰我的嘉然🥰🥰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔西尔兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbhehe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我永远喜欢阎魔爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achi-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小僵尸是吃了跳跳糖么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxyfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王柯南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIRVANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大刘亦菲Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天边最远的云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路缃笺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜鱼不酸嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-qrj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkkm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceking233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫不负有心人，8小时的执念，转世飞升，修仙之路漫漫，望道友们不要放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝愿游戏越做越好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fish_Bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用睡觉的柚子大魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8600FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KYLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孜然酥皮鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiongyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽忽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生生长流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨過の天晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄芥末酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠微凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三盖饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許諾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤和艾莉欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷酷的内内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinko668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大芋头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日出许愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调De张扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不说不懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊公子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璇瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amisa_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白讫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaginya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注嘉然，顿顿解馋❤️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可以无数次重来，但人生不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小小小冰冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望文字游戏越做越好 希望策划多多加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drown丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass Brain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylszy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也不知道我是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜音雪语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是叫hesy好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻网小薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏波poi丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤姆毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuiop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白勺光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就一傻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉冲鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦香鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YoKan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花有重开日，人无在少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orphankun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望游戏越做越好，Fight！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鱼雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的那么多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月金小遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinyilinp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQWQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸢鸣鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽树下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨姆饿了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金蚊子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱电用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是潇潇吖❀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千织信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注嘉然，顿顿解馋😋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亖天荫亖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffccff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪拜小泥人</t>
+  </si>
+  <si>
+    <t>各自安好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多支持国产游戏加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialEctic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请让小翼在学会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不吃香菜不订断更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kxu3nive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罡风甚是喧嚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liangbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莉丨星凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披坚执锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻麓-Cervoserĉo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是scp-114514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼鳃q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星幻Larry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天门仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscar you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤丸嘉人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦絮Sigrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eynaitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我试着感受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸铜水合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力的水哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看我真挚的笑容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seka_L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kotoha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达可达可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jjxxa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythagodzilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白山野猪之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝飞光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛定谔的猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愚蠢的欧豆豆哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙二柱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓月长歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么可爱当然是__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然我真的好喜欢你啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楪之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山中迷路的小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月幵大fw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱saber与魔人archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路痴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又找不到了qwq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你们为世界带来一些欢乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearMoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳烤的咕咕蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠培雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要内卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对不是楠桐的仓妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1849,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1948,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2253,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2365,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2373,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,7 +3347,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2445,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2531,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2571,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2579,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2603,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2619,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,15 +3569,18 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2683,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +3770,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2852,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2860,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2876,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2892,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3941,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3031,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,7 +4040,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3135,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3159,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,10 +4169,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3259,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3267,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3275,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3291,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3315,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3355,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3363,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,10 +4340,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3414,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3430,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3542,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +4487,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3620,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C217" s="2"/>
     </row>
@@ -3629,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3661,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3677,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3685,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3701,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3712,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3752,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3784,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3792,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3800,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,10 +4761,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3835,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3843,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3851,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3875,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3899,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3942,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3950,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3974,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3982,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3993,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4001,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4020,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4028,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4052,7 +4989,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4060,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4068,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4084,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4108,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4116,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4124,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4132,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4148,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,7 +5101,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -4207,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4231,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -4239,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -4247,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -4255,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -4279,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,7 +5224,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,10 +5256,10 @@
         <v>1</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4330,7 +5267,7 @@
         <v>2</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,7 +5275,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4346,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4362,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4370,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4378,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4386,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4394,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4402,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4410,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4418,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4426,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4434,7 +5371,7 @@
         <v>2</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4442,7 +5379,7 @@
         <v>2</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4450,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4458,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4466,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4474,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4482,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4490,7 +5427,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4498,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4506,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4514,7 +5451,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4522,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4530,7 +5467,7 @@
         <v>2</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4538,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4546,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4554,7 +5491,7 @@
         <v>2</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4562,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4570,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4586,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4594,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4602,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4610,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4618,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4634,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4642,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +5587,10 @@
         <v>1</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4669,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4685,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4693,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4701,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4709,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,7 +5662,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,7 +5686,7 @@
         <v>2</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,7 +5694,7 @@
         <v>2</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,7 +5710,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,7 +5734,7 @@
         <v>2</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,7 +5761,7 @@
         <v>2</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -4840,10 +5777,10 @@
         <v>2</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D366" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4867,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4883,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4891,7 +5828,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4899,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4907,7 +5844,7 @@
         <v>2</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4915,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,7 +5860,7 @@
         <v>2</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4931,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4939,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4955,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -4963,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4971,7 +5908,7 @@
         <v>2</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4979,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4990,7 +5927,7 @@
         <v>2</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -5006,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -5033,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5994,13 @@
         <v>1</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C392" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D392" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -5087,7 +6024,7 @@
         <v>2</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,7 +6048,1732 @@
         <v>2</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>427</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>2</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>2</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>2</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>2</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>2</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>2</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>2</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>1</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>1</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>2</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>1</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>2</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>2</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>2</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>2</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>2</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>2</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>2</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>2</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>2</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>1</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>2</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>2</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>2</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>2</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>1</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>1</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>2</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>2</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>2</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>2</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>2</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>2</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>2</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>2</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>2</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>2</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>2</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>2</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>2</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>2</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>2</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>2</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>2</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>2</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>2</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>1</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>2</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>2</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>2</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>2</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>2</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>2</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>2</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>2</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>2</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>2</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>2</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>1</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>2</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>2</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>2</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>2</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>2</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>2</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>2</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>2</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>2</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>2</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>2</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>1</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>2</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>2</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>2</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>2</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>2</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>2</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>2</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>2</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>2</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>2</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>2</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>2</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>2</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>2</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>2</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>2</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>2</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>2</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>2</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>2</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>2</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>2</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>2</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>2</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>2</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>2</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>2</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>2</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>2</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>2</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>2</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>2</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>2</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>2</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>2</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>2</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>2</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>2</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>1</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>2</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>2</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>2</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>2</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>2</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>2</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>2</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>2</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>2</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>2</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>2</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>2</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>2</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>2</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>2</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>2</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>2</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>2</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>2</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>2</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>2</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>2</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>2</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>2</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>2</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>2</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>2</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>2</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>2</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>2</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>2</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>2</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>2</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>2</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>2</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>2</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>2</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>2</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>2</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>2</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>2</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>2</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>2</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>2</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>2</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>2</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>2</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>2</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>2</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>2</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>2</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>2</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>2</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>2</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>2</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>2</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>2</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>2</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>2</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/life_restart/data/specialthanks-afd.xlsx
+++ b/life_restart/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF7B80-CA15-4BE4-92B0-2F5AFBC1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FA711-C462-43C5-8083-8FE8E667B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="428">
   <si>
     <t>group</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>shiki</t>
+  </si>
+  <si>
+    <t>小羊</t>
   </si>
   <si>
     <t>狂啸</t>
@@ -1481,943 +1484,6 @@
   </si>
   <si>
     <t>早啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢肥哥救我狗命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ed</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果可以的话希望人生重开后还能遇到你们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清影昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散修少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ainavol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不识周树人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坠星灬追月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>juvucuc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深秋的七宗罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋漓雨声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废柴呀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天林灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱白安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王牛子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dis114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺其自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkanin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最佳演员路人甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐身。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼岸星霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小沈0421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dorado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小糊涂仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姬子，不论重生多长次，我都等你回来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离淘气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If what you need didn't exist. just create it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五彩鸿鹄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#00ff00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为策划的脑洞和程序的脑细胞+发际线，干杯！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划让我写一句话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧二花肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾熙豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错过开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞鸟掌门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煮酒醉月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉墨明华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人未尽”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡纸129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMFAH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃酥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨露微凉暮流光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若酷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑绝轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉然🥰我的嘉然🥰🥰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔西尔兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbhehe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我永远喜欢阎魔爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Achi-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小僵尸是吃了跳跳糖么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxyfu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王柯南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIRVANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加拿大刘亦菲Regina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天边最远的云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路缃笺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜鱼不酸嘴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-qrj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼粥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkkm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏矢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iceking233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功夫不负有心人，8小时的执念，转世飞升，修仙之路漫漫，望道友们不要放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝愿游戏越做越好！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fish_Bubble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用睡觉的柚子大魔王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8600FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁开心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KYLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孜然酥皮鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wujiongyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物叔叔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽忽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生生长流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨過の天晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄芥末酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奈何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青柠微凉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿三盖饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>許諾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤和艾莉欧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷酷的内内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kinko668</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大芋头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向日出许愿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低调De张扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不说不懂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊公子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璇瑰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amisa_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白讫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yaginya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注嘉然，顿顿解馋❤️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏可以无数次重来，但人生不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小小小冰冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望文字游戏越做越好 希望策划多多加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drown丶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mass Brain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wylszy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我也不知道我是谁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜音雪语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是叫hesy好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻网小薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏波poi丶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤姆毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f0rest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwertyuiop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白勺光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我就一傻的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芭芭拉冲鸭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦香鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YoKan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花有重开日，人无在少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orphankun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望游戏越做越好，Fight！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfyx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷鱼雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的信仰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的那么多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜桐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月金小遥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qinyilinp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQWQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航海家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸢鸣鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>determination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑稽树下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨姆饿了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸丸子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渊静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛合金蚊子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱电用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是潇潇吖❀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千织信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注嘉然，顿顿解馋😋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亖天荫亖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ffccff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪拜小泥人</t>
-  </si>
-  <si>
-    <t>各自安好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多多支持国产游戏加油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialEctic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请让小翼在学会儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼饼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不吃香菜不订断更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kxu3nive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罡风甚是喧嚣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liangbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪莉丨星凌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>披坚执锐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻麓-Cervoserĉo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是scp-114514</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xzny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼鳃q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星幻Larry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天门仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oscar you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤丸嘉人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦絮Sigrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>px5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eynaitty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我试着感受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硫酸铜水合物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力的水哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看我真挚的笑容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seka_L6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kotoha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达可达可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚沫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jjxxa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妄人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pythagodzilla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太白山野猪之光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劝飞光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛定谔的猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我愚蠢的欧豆豆哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙二柱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皓月长歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逸云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那么可爱当然是__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ADFF2F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉然我真的好喜欢你啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楪之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山中迷路的小勘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月幵大fw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱saber与魔人archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路痴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又找不到了qwq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你们为世界带来一些欢乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearMoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳烤的咕咕蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞠培雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要内卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对不是楠桐的仓妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2758,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D607"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="C606" sqref="C606"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2783,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>579</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2890,10 +1956,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2944,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3035,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3043,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3051,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3067,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3075,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3083,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3115,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3147,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3203,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3211,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3227,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3243,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3267,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3275,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3283,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3315,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3355,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3363,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3414,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3422,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3430,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3446,10 +2512,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3457,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3473,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3513,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3521,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3529,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3569,18 +2635,15 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>649</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3588,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3620,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3628,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3652,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3660,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3668,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3687,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3722,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3730,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3762,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3770,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3781,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3789,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3821,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3829,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3853,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3861,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3877,7 +2940,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3917,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3952,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3968,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3992,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4040,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4064,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4096,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4112,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4123,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4147,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4158,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4169,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4196,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4212,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4228,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4236,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4244,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4268,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,7 +3347,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4316,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4324,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4439,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4447,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4455,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4463,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4495,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4503,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4511,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4519,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,10 +3590,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4546,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C217" s="2"/>
     </row>
@@ -4566,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4574,7 +3637,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4598,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4614,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4630,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4649,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4657,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4665,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4673,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4697,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4713,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4729,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -4745,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4753,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +3824,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4780,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4788,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4796,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4812,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4820,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4828,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4836,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4844,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4852,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4863,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4871,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4879,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4895,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4911,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4919,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4930,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4938,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4946,10 +4009,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4957,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4973,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4981,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -5005,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5021,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5029,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5037,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -5045,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -5053,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5061,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5109,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -5125,10 +4188,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5136,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5144,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -5152,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5160,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -5168,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -5176,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -5200,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -5208,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5216,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5224,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -5240,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5248,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5256,10 +4319,10 @@
         <v>1</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5267,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -5275,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5283,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5299,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5307,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5315,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5323,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5331,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5339,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5347,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5355,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5371,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5379,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5387,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5403,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5411,7 +4474,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5419,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5427,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5443,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5451,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5459,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5467,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5475,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5483,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5491,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5499,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5507,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5515,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5523,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5531,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -5539,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -5555,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -5579,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5587,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -5598,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5606,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5622,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5630,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5654,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -5662,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -5670,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5702,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5710,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -5734,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -5750,10 +4813,10 @@
         <v>1</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,10 +4840,10 @@
         <v>2</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5796,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -5804,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -5820,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -5828,7 +4891,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -5836,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -5852,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -5860,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -5868,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -5884,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -5892,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -5908,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -5951,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -5970,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,13 +5057,13 @@
         <v>1</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -6024,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,1732 +5111,7 @@
         <v>2</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
-        <v>1</v>
-      </c>
-      <c r="B399" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
-        <v>2</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
-        <v>2</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
-        <v>2</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
-        <v>2</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
-        <v>2</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
-        <v>2</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
-        <v>2</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
-        <v>2</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
-        <v>2</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
-        <v>2</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
-        <v>2</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>2</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>1</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
-        <v>2</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
-        <v>2</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
-        <v>2</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
-        <v>2</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
-        <v>2</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
-        <v>2</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
-        <v>2</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
-        <v>1</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
-        <v>2</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
-        <v>2</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="1">
-        <v>1</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="1">
-        <v>2</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="1">
-        <v>2</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="1">
-        <v>2</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="1">
-        <v>1</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="1">
-        <v>2</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C428" s="3"/>
-      <c r="D428" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
-        <v>2</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C429" s="3"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="1">
-        <v>2</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
-        <v>2</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
-        <v>2</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
-        <v>2</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="1">
-        <v>2</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="1">
-        <v>2</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="1">
-        <v>2</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="1">
-        <v>2</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="1">
-        <v>2</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
-        <v>2</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
-        <v>2</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="1">
-        <v>2</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
-        <v>2</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
-        <v>2</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="1">
-        <v>2</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="1">
-        <v>2</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="1">
-        <v>2</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="1">
-        <v>2</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="1">
-        <v>2</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="1">
-        <v>2</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
-        <v>2</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="1">
-        <v>2</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
-        <v>2</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
-        <v>2</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="1">
-        <v>2</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="1">
-        <v>2</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
-        <v>1</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="1">
-        <v>2</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="1">
-        <v>2</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="1">
-        <v>2</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="1">
-        <v>2</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="1">
-        <v>2</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="1">
-        <v>2</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="1">
-        <v>2</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="1">
-        <v>1</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
-        <v>1</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="1">
-        <v>2</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="1">
-        <v>2</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="1">
-        <v>2</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="1">
-        <v>2</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="1">
-        <v>2</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
-        <v>2</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
-        <v>2</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
-        <v>2</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="1">
-        <v>2</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="1">
-        <v>2</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
-        <v>2</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="1">
-        <v>2</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
-        <v>2</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="1">
-        <v>2</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="1">
-        <v>2</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="1">
-        <v>2</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="1">
-        <v>2</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="1">
-        <v>2</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
-        <v>2</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
-        <v>1</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
-        <v>2</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
-        <v>2</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
-        <v>2</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
-        <v>2</v>
-      </c>
-      <c r="B489" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
-        <v>2</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
-        <v>2</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
-        <v>2</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="1">
-        <v>2</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>2</v>
-      </c>
-      <c r="B494" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="1">
-        <v>2</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="1">
-        <v>2</v>
-      </c>
-      <c r="B496" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="1">
-        <v>1</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="1">
-        <v>2</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="1">
-        <v>2</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="1">
-        <v>2</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="1">
-        <v>2</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="1">
-        <v>2</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="1">
-        <v>2</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
-        <v>2</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
-        <v>2</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="1">
-        <v>2</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="1">
-        <v>2</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="1">
-        <v>2</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="1">
-        <v>1</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="1">
-        <v>2</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511" s="1">
-        <v>2</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="1">
-        <v>2</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="1">
-        <v>2</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
-        <v>2</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="1">
-        <v>2</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="1">
-        <v>2</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="1">
-        <v>2</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="1">
-        <v>2</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="1">
-        <v>2</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="1">
-        <v>2</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="1">
-        <v>2</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="1">
-        <v>2</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="1">
-        <v>2</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="1">
-        <v>2</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="1">
-        <v>2</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="1">
-        <v>2</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="1">
-        <v>2</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="1">
-        <v>2</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529" s="1">
-        <v>2</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
-        <v>2</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
-        <v>2</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
-        <v>2</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="1">
-        <v>2</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" s="1">
-        <v>2</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" s="1">
-        <v>2</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="1">
-        <v>2</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="1">
-        <v>2</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" s="1">
-        <v>2</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="1">
-        <v>2</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="1">
-        <v>2</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="1">
-        <v>2</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="1">
-        <v>2</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="1">
-        <v>2</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="1">
-        <v>2</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="1">
-        <v>2</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="1">
-        <v>2</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="1">
-        <v>2</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="1">
-        <v>1</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="1">
-        <v>2</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="1">
-        <v>2</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="1">
-        <v>2</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="1">
-        <v>2</v>
-      </c>
-      <c r="B552" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="1">
-        <v>2</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="1">
-        <v>2</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="1">
-        <v>2</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="1">
-        <v>2</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="1">
-        <v>2</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="1">
-        <v>2</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="1">
-        <v>2</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="1">
-        <v>2</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="1">
-        <v>2</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="1">
-        <v>2</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="1">
-        <v>2</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="1">
-        <v>2</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="1">
-        <v>2</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="1">
-        <v>2</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="1">
-        <v>2</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="1">
-        <v>2</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="1">
-        <v>2</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="1">
-        <v>2</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="1">
-        <v>2</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="1">
-        <v>2</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="1">
-        <v>2</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="1">
-        <v>2</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="1">
-        <v>2</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="1">
-        <v>2</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="1">
-        <v>2</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="1">
-        <v>2</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="1">
-        <v>2</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="1">
-        <v>2</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="1">
-        <v>2</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="1">
-        <v>2</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="1">
-        <v>2</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="1">
-        <v>2</v>
-      </c>
-      <c r="B584" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="1">
-        <v>2</v>
-      </c>
-      <c r="B585" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="1">
-        <v>2</v>
-      </c>
-      <c r="B586" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="1">
-        <v>2</v>
-      </c>
-      <c r="B587" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="1">
-        <v>2</v>
-      </c>
-      <c r="B588" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="1">
-        <v>2</v>
-      </c>
-      <c r="B589" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="1">
-        <v>2</v>
-      </c>
-      <c r="B590" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="1">
-        <v>2</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="1">
-        <v>2</v>
-      </c>
-      <c r="B592" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" s="1">
-        <v>2</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="1">
-        <v>2</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D594" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="1">
-        <v>2</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" s="1">
-        <v>2</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" s="1">
-        <v>2</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598" s="1">
-        <v>2</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" s="1">
-        <v>2</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="1">
-        <v>2</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" s="1">
-        <v>2</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" s="1">
-        <v>2</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" s="1">
-        <v>2</v>
-      </c>
-      <c r="B603" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604" s="1">
-        <v>2</v>
-      </c>
-      <c r="B604" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="1">
-        <v>2</v>
-      </c>
-      <c r="B605" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" s="1">
-        <v>2</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607" s="1">
-        <v>2</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
